--- a/Code/Results/Cases/Case_2_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_157/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.04559579111444</v>
+        <v>8.719134520185651</v>
       </c>
       <c r="C2">
-        <v>7.1890609049466</v>
+        <v>4.341831986390855</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.11480612994811</v>
+        <v>19.15624232107774</v>
       </c>
       <c r="F2">
-        <v>33.43789736520974</v>
+        <v>42.43582529800561</v>
       </c>
       <c r="G2">
-        <v>29.95933563439185</v>
+        <v>37.37058304504887</v>
       </c>
       <c r="H2">
-        <v>10.74500089654247</v>
+        <v>16.46480571249877</v>
       </c>
       <c r="I2">
-        <v>16.43598462565787</v>
+        <v>24.12194164514337</v>
       </c>
       <c r="J2">
-        <v>5.365690215147019</v>
+        <v>8.690736112842444</v>
       </c>
       <c r="K2">
-        <v>11.04593084541807</v>
+        <v>9.055337863823665</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.99395690964957</v>
+        <v>17.46026666267149</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.280381543991</v>
+        <v>8.465870614906843</v>
       </c>
       <c r="C3">
-        <v>6.728545859127584</v>
+        <v>4.15749407233841</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.39895953261985</v>
+        <v>19.06452695066666</v>
       </c>
       <c r="F3">
-        <v>32.4002411258493</v>
+        <v>42.36698793397927</v>
       </c>
       <c r="G3">
-        <v>29.62749795260601</v>
+        <v>37.43477470552878</v>
       </c>
       <c r="H3">
-        <v>10.80971179980135</v>
+        <v>16.51701498894585</v>
       </c>
       <c r="I3">
-        <v>16.57661993838529</v>
+        <v>24.21251245331357</v>
       </c>
       <c r="J3">
-        <v>5.429408452968362</v>
+        <v>8.710127221970373</v>
       </c>
       <c r="K3">
-        <v>10.40449756907659</v>
+        <v>8.89696463106198</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.29371738221254</v>
+        <v>17.35787824235884</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.78446939718896</v>
+        <v>8.308180316357701</v>
       </c>
       <c r="C4">
-        <v>6.430845658456019</v>
+        <v>4.040950026356565</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.94941543154492</v>
+        <v>19.01174898619653</v>
       </c>
       <c r="F4">
-        <v>31.77514731977556</v>
+        <v>42.3353150814053</v>
       </c>
       <c r="G4">
-        <v>29.45772925549709</v>
+        <v>37.48559675478093</v>
       </c>
       <c r="H4">
-        <v>10.85695148078378</v>
+        <v>16.55186636563571</v>
       </c>
       <c r="I4">
-        <v>16.67613026655346</v>
+        <v>24.27282016539318</v>
       </c>
       <c r="J4">
-        <v>5.469432761900096</v>
+        <v>8.722618420645389</v>
       </c>
       <c r="K4">
-        <v>9.990691991686662</v>
+        <v>8.800100149713201</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.85135983515663</v>
+        <v>17.29796885382675</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.5758143351832</v>
+        <v>8.243474948790711</v>
       </c>
       <c r="C5">
-        <v>6.305759719209139</v>
+        <v>3.99268744588065</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.76393989551306</v>
+        <v>18.9911465735757</v>
       </c>
       <c r="F5">
-        <v>31.52372034667897</v>
+        <v>42.32507946823695</v>
       </c>
       <c r="G5">
-        <v>29.39680415845327</v>
+        <v>37.50916320492284</v>
       </c>
       <c r="H5">
-        <v>10.87800966693337</v>
+        <v>16.56677052287765</v>
       </c>
       <c r="I5">
-        <v>16.71983409356604</v>
+        <v>24.29857488001153</v>
       </c>
       <c r="J5">
-        <v>5.485978495967855</v>
+        <v>8.727856238970551</v>
       </c>
       <c r="K5">
-        <v>9.817073486894179</v>
+        <v>8.760774960481234</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.66819143229645</v>
+        <v>17.27431877109274</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.54077053444315</v>
+        <v>8.232706948305482</v>
       </c>
       <c r="C6">
-        <v>6.284761286395887</v>
+        <v>3.984629349847567</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.73301155058148</v>
+        <v>18.98778066359114</v>
       </c>
       <c r="F6">
-        <v>31.48217889942525</v>
+        <v>42.32354136551864</v>
       </c>
       <c r="G6">
-        <v>29.38717742478817</v>
+        <v>37.5132484996772</v>
       </c>
       <c r="H6">
-        <v>10.8816132720254</v>
+        <v>16.56928771852964</v>
       </c>
       <c r="I6">
-        <v>16.72727708089956</v>
+        <v>24.30292256400507</v>
       </c>
       <c r="J6">
-        <v>5.488740378622969</v>
+        <v>8.72873489997364</v>
       </c>
       <c r="K6">
-        <v>9.787944115384883</v>
+        <v>8.754255531732667</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.63760812436992</v>
+        <v>17.27043836135772</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.78168200013261</v>
+        <v>8.307309337685846</v>
       </c>
       <c r="C7">
-        <v>6.429173986327144</v>
+        <v>4.040302151979929</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.94692294833067</v>
+        <v>19.01146745020625</v>
       </c>
       <c r="F7">
-        <v>31.77174273733088</v>
+        <v>42.33516621620628</v>
       </c>
       <c r="G7">
-        <v>29.45687456347898</v>
+        <v>37.48590303386487</v>
       </c>
       <c r="H7">
-        <v>10.857228262768</v>
+        <v>16.55206452728516</v>
       </c>
       <c r="I7">
-        <v>16.6767071073756</v>
+        <v>24.27316273242586</v>
       </c>
       <c r="J7">
-        <v>5.469654938435093</v>
+        <v>8.722688461655283</v>
       </c>
       <c r="K7">
-        <v>9.988370662178921</v>
+        <v>8.799569127365038</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.84890100707324</v>
+        <v>17.2976467839446</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.78715019330707</v>
+        <v>8.632323160447889</v>
       </c>
       <c r="C8">
-        <v>7.033366566619464</v>
+        <v>4.279011740352241</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.87018943900697</v>
+        <v>19.123894976867</v>
       </c>
       <c r="F8">
-        <v>33.07778039240863</v>
+        <v>42.40989669381896</v>
       </c>
       <c r="G8">
-        <v>29.83769961866404</v>
+        <v>37.39034139547813</v>
       </c>
       <c r="H8">
-        <v>10.76570580313858</v>
+        <v>16.48222695747703</v>
       </c>
       <c r="I8">
-        <v>16.48164742213043</v>
+        <v>24.15219428501384</v>
       </c>
       <c r="J8">
-        <v>5.387478777572738</v>
+        <v>8.697301030149855</v>
       </c>
       <c r="K8">
-        <v>10.82892159431476</v>
+        <v>9.000684073334151</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.75520731400121</v>
+        <v>17.42436150646015</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.55303756641427</v>
+        <v>9.24809832051926</v>
       </c>
       <c r="C9">
-        <v>8.100547398717273</v>
+        <v>4.717620999484469</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.59284874921211</v>
+        <v>19.37166413922158</v>
       </c>
       <c r="F9">
-        <v>35.72288641446379</v>
+        <v>42.64006370414654</v>
       </c>
       <c r="G9">
-        <v>30.86571418116821</v>
+        <v>37.29396672966528</v>
       </c>
       <c r="H9">
-        <v>10.64958457914835</v>
+        <v>16.36748586445146</v>
       </c>
       <c r="I9">
-        <v>16.2110419322854</v>
+        <v>23.95234264343255</v>
       </c>
       <c r="J9">
-        <v>5.233050533024826</v>
+        <v>8.652136885422026</v>
       </c>
       <c r="K9">
-        <v>12.31825036856531</v>
+        <v>9.395772389881431</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.44024238333023</v>
+        <v>17.69539665677314</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.7268893581202</v>
+        <v>9.68218253400053</v>
       </c>
       <c r="C10">
-        <v>8.814555146996007</v>
+        <v>5.018656595517494</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.79613412219573</v>
+        <v>19.56925981111982</v>
       </c>
       <c r="F10">
-        <v>37.70374192185091</v>
+        <v>42.85941038002436</v>
       </c>
       <c r="G10">
-        <v>31.80653017688801</v>
+        <v>37.27924585169797</v>
       </c>
       <c r="H10">
-        <v>10.60841224966282</v>
+        <v>16.29677401366723</v>
       </c>
       <c r="I10">
-        <v>16.09146739544101</v>
+        <v>23.82842746332562</v>
       </c>
       <c r="J10">
-        <v>5.123045494842737</v>
+        <v>8.621741849314722</v>
       </c>
       <c r="K10">
-        <v>13.31565013561961</v>
+        <v>9.683484854411361</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.8424380994308</v>
+        <v>17.9069772169128</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.23462464973002</v>
+        <v>9.874731432564438</v>
       </c>
       <c r="C11">
-        <v>9.124622781156795</v>
+        <v>5.15046549504719</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.32879286198097</v>
+        <v>19.66227863253294</v>
       </c>
       <c r="F11">
-        <v>38.61073722171449</v>
+        <v>42.96989952945817</v>
       </c>
       <c r="G11">
-        <v>32.27737031895362</v>
+        <v>37.28482268318681</v>
       </c>
       <c r="H11">
-        <v>10.6005528349373</v>
+        <v>16.26756625947107</v>
       </c>
       <c r="I11">
-        <v>16.05687290384105</v>
+        <v>23.77706037288453</v>
       </c>
       <c r="J11">
-        <v>5.073597230830575</v>
+        <v>8.608513194070628</v>
       </c>
       <c r="K11">
-        <v>13.74860948711257</v>
+        <v>9.813216238427932</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.44960453257921</v>
+        <v>18.00564143448335</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.42316640109572</v>
+        <v>9.946868201672016</v>
       </c>
       <c r="C12">
-        <v>9.239961030943565</v>
+        <v>5.19960380516007</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.52831661876492</v>
+        <v>19.69793023082002</v>
       </c>
       <c r="F12">
-        <v>38.95489664494187</v>
+        <v>43.01325717711268</v>
       </c>
       <c r="G12">
-        <v>32.46201056566854</v>
+        <v>37.28870442889979</v>
       </c>
       <c r="H12">
-        <v>10.59925283024326</v>
+        <v>16.25693247314224</v>
       </c>
       <c r="I12">
-        <v>16.04685018150614</v>
+        <v>23.75833082291482</v>
       </c>
       <c r="J12">
-        <v>5.054944066875737</v>
+        <v>8.603589391433669</v>
       </c>
       <c r="K12">
-        <v>13.90960416688547</v>
+        <v>9.862129334923285</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.67519108708719</v>
+        <v>18.04332462308174</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.3827254653159</v>
+        <v>9.931367871656963</v>
       </c>
       <c r="C13">
-        <v>9.215212565386134</v>
+        <v>5.189055978104482</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.48544344353583</v>
+        <v>19.69023338568822</v>
       </c>
       <c r="F13">
-        <v>38.88074653302829</v>
+        <v>43.0038522001993</v>
       </c>
       <c r="G13">
-        <v>32.42196012656875</v>
+        <v>37.28778964646497</v>
       </c>
       <c r="H13">
-        <v>10.59945640162686</v>
+        <v>16.25920366238594</v>
       </c>
       <c r="I13">
-        <v>16.04886809150808</v>
+        <v>23.76233241037789</v>
       </c>
       <c r="J13">
-        <v>5.058958392106653</v>
+        <v>8.604646019885427</v>
       </c>
       <c r="K13">
-        <v>13.87506209344941</v>
+        <v>9.851605252031469</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.62679841247541</v>
+        <v>18.03519501002225</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.25021047981365</v>
+        <v>9.880682123442451</v>
       </c>
       <c r="C14">
-        <v>9.13415311205882</v>
+        <v>5.154523853044624</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.34525182562394</v>
+        <v>19.66520327935179</v>
       </c>
       <c r="F14">
-        <v>38.63903809460773</v>
+        <v>42.97343630374407</v>
       </c>
       <c r="G14">
-        <v>32.29243266629475</v>
+        <v>37.28510654235924</v>
       </c>
       <c r="H14">
-        <v>10.60041162228727</v>
+        <v>16.26668285699876</v>
       </c>
       <c r="I14">
-        <v>16.05598529083773</v>
+        <v>23.77550499514998</v>
       </c>
       <c r="J14">
-        <v>5.072061265708302</v>
+        <v>8.608106396658043</v>
       </c>
       <c r="K14">
-        <v>13.76191370310654</v>
+        <v>9.817244890648553</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.4682500581471</v>
+        <v>18.00873536723812</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.16855745847355</v>
+        <v>9.849532447529329</v>
       </c>
       <c r="C15">
-        <v>9.08423260289903</v>
+        <v>5.133270026700997</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.25909468102747</v>
+        <v>19.64992658235481</v>
       </c>
       <c r="F15">
-        <v>38.49107217675991</v>
+        <v>42.95500266279725</v>
       </c>
       <c r="G15">
-        <v>32.21392457293698</v>
+        <v>37.28369367869897</v>
       </c>
       <c r="H15">
-        <v>10.60121846106041</v>
+        <v>16.27131965916518</v>
       </c>
       <c r="I15">
-        <v>16.06075259159191</v>
+        <v>23.78366769592521</v>
       </c>
       <c r="J15">
-        <v>5.080096087636853</v>
+        <v>8.610237112892017</v>
       </c>
       <c r="K15">
-        <v>13.69222284251183</v>
+        <v>9.79616900832616</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.37057265079035</v>
+        <v>17.99256911721268</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.69318339215864</v>
+        <v>9.66949389315473</v>
       </c>
       <c r="C16">
-        <v>8.793998388440762</v>
+        <v>5.009936010629533</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.76102117176102</v>
+        <v>19.56324188470501</v>
       </c>
       <c r="F16">
-        <v>37.64457270912565</v>
+        <v>42.85240329397905</v>
       </c>
       <c r="G16">
-        <v>31.77663781227618</v>
+        <v>37.27912883387955</v>
       </c>
       <c r="H16">
-        <v>10.60915415671319</v>
+        <v>16.29874244559878</v>
       </c>
       <c r="I16">
-        <v>16.09414606821941</v>
+        <v>23.83188531788416</v>
       </c>
       <c r="J16">
-        <v>5.12628786607107</v>
+        <v>8.622618374514111</v>
       </c>
       <c r="K16">
-        <v>13.28693963862831</v>
+        <v>9.674979303434593</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.80214733841373</v>
+        <v>17.900575657621</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.39486519584084</v>
+        <v>9.557734309641043</v>
       </c>
       <c r="C17">
-        <v>8.612202529875141</v>
+        <v>4.932931850138154</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.45164349483621</v>
+        <v>19.51084962766754</v>
       </c>
       <c r="F17">
-        <v>37.126664591283</v>
+        <v>42.79218946049714</v>
       </c>
       <c r="G17">
-        <v>31.51948641429238</v>
+        <v>37.27947608839505</v>
       </c>
       <c r="H17">
-        <v>10.61688527332771</v>
+        <v>16.31632412809496</v>
       </c>
       <c r="I17">
-        <v>16.11986327562053</v>
+        <v>23.86274845806272</v>
       </c>
       <c r="J17">
-        <v>5.154767748485394</v>
+        <v>8.630366792048113</v>
       </c>
       <c r="K17">
-        <v>13.03301108388066</v>
+        <v>9.600303857184635</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.44562942546795</v>
+        <v>17.84474082450539</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.2208058690879</v>
+        <v>9.492993966828827</v>
       </c>
       <c r="C18">
-        <v>8.506248364165051</v>
+        <v>4.888159694532227</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.27231412512464</v>
+        <v>19.48101116710201</v>
       </c>
       <c r="F18">
-        <v>36.82933872554515</v>
+        <v>42.75856533323378</v>
       </c>
       <c r="G18">
-        <v>31.37560403447537</v>
+        <v>37.28083086223437</v>
       </c>
       <c r="H18">
-        <v>10.6223480519952</v>
+        <v>16.3267151428358</v>
       </c>
       <c r="I18">
-        <v>16.13650434331159</v>
+        <v>23.88097082276368</v>
       </c>
       <c r="J18">
-        <v>5.171205363887922</v>
+        <v>8.634879807009542</v>
       </c>
       <c r="K18">
-        <v>12.88500160288587</v>
+        <v>9.557246955270754</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.2376750467436</v>
+        <v>17.81285503070604</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.16144595467317</v>
+        <v>9.470997383804461</v>
       </c>
       <c r="C19">
-        <v>8.470134175973113</v>
+        <v>4.872919140016042</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.21136109437606</v>
+        <v>19.47095993242954</v>
       </c>
       <c r="F19">
-        <v>36.72877083837474</v>
+        <v>42.7473547543721</v>
       </c>
       <c r="G19">
-        <v>31.32757338524763</v>
+        <v>37.28148776387325</v>
       </c>
       <c r="H19">
-        <v>10.62436880516011</v>
+        <v>16.33028116332475</v>
       </c>
       <c r="I19">
-        <v>16.14244950821892</v>
+        <v>23.88722136385795</v>
       </c>
       <c r="J19">
-        <v>5.176780998887881</v>
+        <v>8.636417523886832</v>
       </c>
       <c r="K19">
-        <v>12.83455138219033</v>
+        <v>9.542651996047347</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.16676573903256</v>
+        <v>17.80209915381503</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.42687745011464</v>
+        <v>9.569679361987676</v>
       </c>
       <c r="C20">
-        <v>8.631698581308743</v>
+        <v>4.941179180572294</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.48472102358257</v>
+        <v>19.5163963830574</v>
       </c>
       <c r="F20">
-        <v>37.18173991265247</v>
+        <v>42.79849502053525</v>
       </c>
       <c r="G20">
-        <v>31.54644277026384</v>
+        <v>37.2793195381042</v>
       </c>
       <c r="H20">
-        <v>10.61595632423767</v>
+        <v>16.31442369741056</v>
       </c>
       <c r="I20">
-        <v>16.11693261940373</v>
+        <v>23.85941428856006</v>
       </c>
       <c r="J20">
-        <v>5.151730238728286</v>
+        <v>8.629536132852076</v>
       </c>
       <c r="K20">
-        <v>13.06024452348913</v>
+        <v>9.608264465541074</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.483880392055</v>
+        <v>17.850661032356</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.28923406478579</v>
+        <v>9.89559137677576</v>
       </c>
       <c r="C21">
-        <v>9.158018269650839</v>
+        <v>5.164688069432474</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.38648912867135</v>
+        <v>19.67254381539417</v>
       </c>
       <c r="F21">
-        <v>38.71001569642265</v>
+        <v>42.98232918292694</v>
       </c>
       <c r="G21">
-        <v>32.33030449178102</v>
+        <v>37.28584656859066</v>
       </c>
       <c r="H21">
-        <v>10.60008463122598</v>
+        <v>16.26447445176589</v>
       </c>
       <c r="I21">
-        <v>16.05380938212102</v>
+        <v>23.77161626999475</v>
       </c>
       <c r="J21">
-        <v>5.068210798044847</v>
+        <v>8.607087680223765</v>
       </c>
       <c r="K21">
-        <v>13.79522813492886</v>
+        <v>9.827343522682879</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.51493651426692</v>
+        <v>18.01649869919333</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.83113910480565</v>
+        <v>10.1040352179596</v>
       </c>
       <c r="C22">
-        <v>9.489911228043722</v>
+        <v>5.319703753105265</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.96311288547274</v>
+        <v>19.77707521802747</v>
       </c>
       <c r="F22">
-        <v>39.71287375531926</v>
+        <v>43.11131059586933</v>
       </c>
       <c r="G22">
-        <v>32.87965293198036</v>
+        <v>37.30042990295473</v>
       </c>
       <c r="H22">
-        <v>10.59953804727256</v>
+        <v>16.23431648017445</v>
       </c>
       <c r="I22">
-        <v>16.03060771519004</v>
+        <v>23.71844510434357</v>
       </c>
       <c r="J22">
-        <v>5.014037581029015</v>
+        <v>8.592915080766407</v>
       </c>
       <c r="K22">
-        <v>14.25836156821811</v>
+        <v>9.969260155373908</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.16356958119944</v>
+        <v>18.12674291437034</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.54388169674526</v>
+        <v>9.993223298609335</v>
       </c>
       <c r="C23">
-        <v>9.31386472693154</v>
+        <v>5.231113607555484</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.65653805006065</v>
+        <v>19.72106567436295</v>
       </c>
       <c r="F23">
-        <v>39.1772976725442</v>
+        <v>43.04167019445078</v>
       </c>
       <c r="G23">
-        <v>32.58300874407207</v>
+        <v>37.2917012416087</v>
       </c>
       <c r="H23">
-        <v>10.5988918542459</v>
+        <v>16.25018449459417</v>
       </c>
       <c r="I23">
-        <v>16.04125990339939</v>
+        <v>23.74643746206043</v>
       </c>
       <c r="J23">
-        <v>5.042917940795493</v>
+        <v>8.600433764493069</v>
       </c>
       <c r="K23">
-        <v>14.01274296693441</v>
+        <v>9.893647475037929</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.81966169510689</v>
+        <v>18.06774208442597</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.41241266320066</v>
+        <v>9.564280519271291</v>
       </c>
       <c r="C24">
-        <v>8.62288889643739</v>
+        <v>4.93745212151828</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.46977122766341</v>
+        <v>19.513887813104</v>
       </c>
       <c r="F24">
-        <v>37.15683901996247</v>
+        <v>42.79564118011304</v>
       </c>
       <c r="G24">
-        <v>31.53424348912857</v>
+        <v>37.27938671662683</v>
       </c>
       <c r="H24">
-        <v>10.61637313959696</v>
+        <v>16.31528200040582</v>
       </c>
       <c r="I24">
-        <v>16.1182518056419</v>
+        <v>23.86092017550553</v>
       </c>
       <c r="J24">
-        <v>5.153103296061059</v>
+        <v>8.629911492090327</v>
       </c>
       <c r="K24">
-        <v>13.04793858733332</v>
+        <v>9.604665860145365</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.46659644140991</v>
+        <v>17.84798383657331</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.09717915785644</v>
+        <v>9.084387040249494</v>
       </c>
       <c r="C25">
-        <v>7.824287345333659</v>
+        <v>4.602486642316681</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.13726358198046</v>
+        <v>19.30182109577991</v>
       </c>
       <c r="F25">
-        <v>34.99983877597234</v>
+        <v>42.5689113008327</v>
       </c>
       <c r="G25">
-        <v>30.55595526568431</v>
+        <v>37.31022647398371</v>
       </c>
       <c r="H25">
-        <v>10.67366414619046</v>
+        <v>16.3961435730848</v>
       </c>
       <c r="I25">
-        <v>16.2711717222939</v>
+        <v>24.00239336721393</v>
       </c>
       <c r="J25">
-        <v>5.274171879201751</v>
+        <v>8.663863408786437</v>
       </c>
       <c r="K25">
-        <v>11.93239764520571</v>
+        <v>9.289129553364972</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.98659333819809</v>
+        <v>17.6197907153993</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_157/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.719134520185651</v>
+        <v>12.04559579111442</v>
       </c>
       <c r="C2">
-        <v>4.341831986390855</v>
+        <v>7.189060904946741</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.15624232107774</v>
+        <v>15.11480612994816</v>
       </c>
       <c r="F2">
-        <v>42.43582529800561</v>
+        <v>33.43789736520969</v>
       </c>
       <c r="G2">
-        <v>37.37058304504887</v>
+        <v>29.95933563439164</v>
       </c>
       <c r="H2">
-        <v>16.46480571249877</v>
+        <v>10.7450008965425</v>
       </c>
       <c r="I2">
-        <v>24.12194164514337</v>
+        <v>16.43598462565784</v>
       </c>
       <c r="J2">
-        <v>8.690736112842444</v>
+        <v>5.365690215147051</v>
       </c>
       <c r="K2">
-        <v>9.055337863823665</v>
+        <v>11.04593084541808</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.46026666267149</v>
+        <v>13.99395690964959</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.465870614906843</v>
+        <v>11.28038154399107</v>
       </c>
       <c r="C3">
-        <v>4.15749407233841</v>
+        <v>6.728545859127427</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.06452695066666</v>
+        <v>14.39895953261975</v>
       </c>
       <c r="F3">
-        <v>42.36698793397927</v>
+        <v>32.40024112584937</v>
       </c>
       <c r="G3">
-        <v>37.43477470552878</v>
+        <v>29.62749795260602</v>
       </c>
       <c r="H3">
-        <v>16.51701498894585</v>
+        <v>10.80971179980144</v>
       </c>
       <c r="I3">
-        <v>24.21251245331357</v>
+        <v>16.57661993838533</v>
       </c>
       <c r="J3">
-        <v>8.710127221970373</v>
+        <v>5.4294084529683</v>
       </c>
       <c r="K3">
-        <v>8.89696463106198</v>
+        <v>10.40449756907663</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.35787824235884</v>
+        <v>13.29371738221247</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.308180316357701</v>
+        <v>10.78446939718901</v>
       </c>
       <c r="C4">
-        <v>4.040950026356565</v>
+        <v>6.430845658455913</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.01174898619653</v>
+        <v>13.94941543154485</v>
       </c>
       <c r="F4">
-        <v>42.3353150814053</v>
+        <v>31.77514731977554</v>
       </c>
       <c r="G4">
-        <v>37.48559675478093</v>
+        <v>29.45772925549716</v>
       </c>
       <c r="H4">
-        <v>16.55186636563571</v>
+        <v>10.85695148078379</v>
       </c>
       <c r="I4">
-        <v>24.27282016539318</v>
+        <v>16.67613026655343</v>
       </c>
       <c r="J4">
-        <v>8.722618420645389</v>
+        <v>5.469432761900066</v>
       </c>
       <c r="K4">
-        <v>8.800100149713201</v>
+        <v>9.990691991686633</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.29796885382675</v>
+        <v>12.85135983515659</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.243474948790711</v>
+        <v>10.57581433518321</v>
       </c>
       <c r="C5">
-        <v>3.99268744588065</v>
+        <v>6.305759719208965</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.9911465735757</v>
+        <v>13.76393989551307</v>
       </c>
       <c r="F5">
-        <v>42.32507946823695</v>
+        <v>31.52372034667911</v>
       </c>
       <c r="G5">
-        <v>37.50916320492284</v>
+        <v>29.39680415845335</v>
       </c>
       <c r="H5">
-        <v>16.56677052287765</v>
+        <v>10.87800966693348</v>
       </c>
       <c r="I5">
-        <v>24.29857488001153</v>
+        <v>16.71983409356604</v>
       </c>
       <c r="J5">
-        <v>8.727856238970551</v>
+        <v>5.485978495967887</v>
       </c>
       <c r="K5">
-        <v>8.760774960481234</v>
+        <v>9.817073486894103</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.27431877109274</v>
+        <v>12.66819143229649</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.232706948305482</v>
+        <v>10.54077053444317</v>
       </c>
       <c r="C6">
-        <v>3.984629349847567</v>
+        <v>6.284761286395921</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.98778066359114</v>
+        <v>13.73301155058147</v>
       </c>
       <c r="F6">
-        <v>42.32354136551864</v>
+        <v>31.48217889942531</v>
       </c>
       <c r="G6">
-        <v>37.5132484996772</v>
+        <v>29.38717742478812</v>
       </c>
       <c r="H6">
-        <v>16.56928771852964</v>
+        <v>10.88161327202553</v>
       </c>
       <c r="I6">
-        <v>24.30292256400507</v>
+        <v>16.72727708089964</v>
       </c>
       <c r="J6">
-        <v>8.72873489997364</v>
+        <v>5.488740378622937</v>
       </c>
       <c r="K6">
-        <v>8.754255531732667</v>
+        <v>9.787944115384919</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.27043836135772</v>
+        <v>12.63760812436991</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.307309337685846</v>
+        <v>10.78168200013274</v>
       </c>
       <c r="C7">
-        <v>4.040302151979929</v>
+        <v>6.429173986326971</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19.01146745020625</v>
+        <v>13.94692294833063</v>
       </c>
       <c r="F7">
-        <v>42.33516621620628</v>
+        <v>31.77174273733084</v>
       </c>
       <c r="G7">
-        <v>37.48590303386487</v>
+        <v>29.45687456347893</v>
       </c>
       <c r="H7">
-        <v>16.55206452728516</v>
+        <v>10.85722826276796</v>
       </c>
       <c r="I7">
-        <v>24.27316273242586</v>
+        <v>16.67670710737548</v>
       </c>
       <c r="J7">
-        <v>8.722688461655283</v>
+        <v>5.469654938435025</v>
       </c>
       <c r="K7">
-        <v>8.799569127365038</v>
+        <v>9.988370662178989</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.2976467839446</v>
+        <v>12.8489010070732</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.632323160447889</v>
+        <v>11.78715019330707</v>
       </c>
       <c r="C8">
-        <v>4.279011740352241</v>
+        <v>7.033366566619449</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>19.123894976867</v>
+        <v>14.87018943900698</v>
       </c>
       <c r="F8">
-        <v>42.40989669381896</v>
+        <v>33.07778039240878</v>
       </c>
       <c r="G8">
-        <v>37.39034139547813</v>
+        <v>29.83769961866435</v>
       </c>
       <c r="H8">
-        <v>16.48222695747703</v>
+        <v>10.76570580313876</v>
       </c>
       <c r="I8">
-        <v>24.15219428501384</v>
+        <v>16.48164742213067</v>
       </c>
       <c r="J8">
-        <v>8.697301030149855</v>
+        <v>5.387478777572804</v>
       </c>
       <c r="K8">
-        <v>9.000684073334151</v>
+        <v>10.82892159431474</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.42436150646015</v>
+        <v>13.7552073140012</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.24809832051926</v>
+        <v>13.55303756641426</v>
       </c>
       <c r="C9">
-        <v>4.717620999484469</v>
+        <v>8.100547398717213</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.37166413922158</v>
+        <v>16.59284874921202</v>
       </c>
       <c r="F9">
-        <v>42.64006370414654</v>
+        <v>35.72288641446376</v>
       </c>
       <c r="G9">
-        <v>37.29396672966528</v>
+        <v>30.8657141811683</v>
       </c>
       <c r="H9">
-        <v>16.36748586445146</v>
+        <v>10.64958457914836</v>
       </c>
       <c r="I9">
-        <v>23.95234264343255</v>
+        <v>16.21104193228541</v>
       </c>
       <c r="J9">
-        <v>8.652136885422026</v>
+        <v>5.233050533024761</v>
       </c>
       <c r="K9">
-        <v>9.395772389881431</v>
+        <v>12.31825036856526</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.69539665677314</v>
+        <v>15.44024238333024</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.68218253400053</v>
+        <v>14.72688935812013</v>
       </c>
       <c r="C10">
-        <v>5.018656595517494</v>
+        <v>8.814555146996046</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.56925981111982</v>
+        <v>17.79613412219574</v>
       </c>
       <c r="F10">
-        <v>42.85941038002436</v>
+        <v>37.70374192185099</v>
       </c>
       <c r="G10">
-        <v>37.27924585169797</v>
+        <v>31.80653017688805</v>
       </c>
       <c r="H10">
-        <v>16.29677401366723</v>
+        <v>10.60841224966287</v>
       </c>
       <c r="I10">
-        <v>23.82842746332562</v>
+        <v>16.09146739544111</v>
       </c>
       <c r="J10">
-        <v>8.621741849314722</v>
+        <v>5.123045494842671</v>
       </c>
       <c r="K10">
-        <v>9.683484854411361</v>
+        <v>13.31565013561957</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.9069772169128</v>
+        <v>16.84243809943076</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.874731432564438</v>
+        <v>15.23462464973009</v>
       </c>
       <c r="C11">
-        <v>5.15046549504719</v>
+        <v>9.124622781156894</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.66227863253294</v>
+        <v>18.32879286198095</v>
       </c>
       <c r="F11">
-        <v>42.96989952945817</v>
+        <v>38.61073722171447</v>
       </c>
       <c r="G11">
-        <v>37.28482268318681</v>
+        <v>32.27737031895347</v>
       </c>
       <c r="H11">
-        <v>16.26756625947107</v>
+        <v>10.60055283493728</v>
       </c>
       <c r="I11">
-        <v>23.77706037288453</v>
+        <v>16.05687290384096</v>
       </c>
       <c r="J11">
-        <v>8.608513194070628</v>
+        <v>5.073597230830546</v>
       </c>
       <c r="K11">
-        <v>9.813216238427932</v>
+        <v>13.74860948711263</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.00564143448335</v>
+        <v>17.44960453257922</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.946868201672016</v>
+        <v>15.42316640109578</v>
       </c>
       <c r="C12">
-        <v>5.19960380516007</v>
+        <v>9.239961030943526</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.69793023082002</v>
+        <v>18.52831661876493</v>
       </c>
       <c r="F12">
-        <v>43.01325717711268</v>
+        <v>38.95489664494194</v>
       </c>
       <c r="G12">
-        <v>37.28870442889979</v>
+        <v>32.46201056566851</v>
       </c>
       <c r="H12">
-        <v>16.25693247314224</v>
+        <v>10.59925283024328</v>
       </c>
       <c r="I12">
-        <v>23.75833082291482</v>
+        <v>16.04685018150614</v>
       </c>
       <c r="J12">
-        <v>8.603589391433669</v>
+        <v>5.054944066875773</v>
       </c>
       <c r="K12">
-        <v>9.862129334923285</v>
+        <v>13.9096041668855</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.04332462308174</v>
+        <v>17.67519108708716</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.931367871656963</v>
+        <v>15.38272546531593</v>
       </c>
       <c r="C13">
-        <v>5.189055978104482</v>
+        <v>9.21521256538589</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.69023338568822</v>
+        <v>18.48544344353584</v>
       </c>
       <c r="F13">
-        <v>43.0038522001993</v>
+        <v>38.88074653302832</v>
       </c>
       <c r="G13">
-        <v>37.28778964646497</v>
+        <v>32.42196012656886</v>
       </c>
       <c r="H13">
-        <v>16.25920366238594</v>
+        <v>10.59945640162686</v>
       </c>
       <c r="I13">
-        <v>23.76233241037789</v>
+        <v>16.04886809150805</v>
       </c>
       <c r="J13">
-        <v>8.604646019885427</v>
+        <v>5.058958392106656</v>
       </c>
       <c r="K13">
-        <v>9.851605252031469</v>
+        <v>13.87506209344936</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.03519501002225</v>
+        <v>17.62679841247535</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.880682123442451</v>
+        <v>15.25021047981366</v>
       </c>
       <c r="C14">
-        <v>5.154523853044624</v>
+        <v>9.134153112058819</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.66520327935179</v>
+        <v>18.34525182562392</v>
       </c>
       <c r="F14">
-        <v>42.97343630374407</v>
+        <v>38.63903809460773</v>
       </c>
       <c r="G14">
-        <v>37.28510654235924</v>
+        <v>32.29243266629478</v>
       </c>
       <c r="H14">
-        <v>16.26668285699876</v>
+        <v>10.60041162228728</v>
       </c>
       <c r="I14">
-        <v>23.77550499514998</v>
+        <v>16.05598529083775</v>
       </c>
       <c r="J14">
-        <v>8.608106396658043</v>
+        <v>5.07206126570827</v>
       </c>
       <c r="K14">
-        <v>9.817244890648553</v>
+        <v>13.76191370310655</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.00873536723812</v>
+        <v>17.46825005814711</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.849532447529329</v>
+        <v>15.16855745847356</v>
       </c>
       <c r="C15">
-        <v>5.133270026700997</v>
+        <v>9.084232602899061</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.64992658235481</v>
+        <v>18.25909468102747</v>
       </c>
       <c r="F15">
-        <v>42.95500266279725</v>
+        <v>38.49107217675994</v>
       </c>
       <c r="G15">
-        <v>37.28369367869897</v>
+        <v>32.21392457293691</v>
       </c>
       <c r="H15">
-        <v>16.27131965916518</v>
+        <v>10.60121846106033</v>
       </c>
       <c r="I15">
-        <v>23.78366769592521</v>
+        <v>16.06075259159181</v>
       </c>
       <c r="J15">
-        <v>8.610237112892017</v>
+        <v>5.080096087636687</v>
       </c>
       <c r="K15">
-        <v>9.79616900832616</v>
+        <v>13.69222284251184</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.99256911721268</v>
+        <v>17.37057265079034</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.66949389315473</v>
+        <v>14.69318339215869</v>
       </c>
       <c r="C16">
-        <v>5.009936010629533</v>
+        <v>8.793998388440656</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.56324188470501</v>
+        <v>17.761021171761</v>
       </c>
       <c r="F16">
-        <v>42.85240329397905</v>
+        <v>37.64457270912569</v>
       </c>
       <c r="G16">
-        <v>37.27912883387955</v>
+        <v>31.77663781227624</v>
       </c>
       <c r="H16">
-        <v>16.29874244559878</v>
+        <v>10.60915415671317</v>
       </c>
       <c r="I16">
-        <v>23.83188531788416</v>
+        <v>16.09414606821941</v>
       </c>
       <c r="J16">
-        <v>8.622618374514111</v>
+        <v>5.126287866071007</v>
       </c>
       <c r="K16">
-        <v>9.674979303434593</v>
+        <v>13.28693963862833</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.900575657621</v>
+        <v>16.80214733841375</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.557734309641043</v>
+        <v>14.39486519584084</v>
       </c>
       <c r="C17">
-        <v>4.932931850138154</v>
+        <v>8.612202529875034</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.51084962766754</v>
+        <v>17.4516434948362</v>
       </c>
       <c r="F17">
-        <v>42.79218946049714</v>
+        <v>37.12666459128305</v>
       </c>
       <c r="G17">
-        <v>37.27947608839505</v>
+        <v>31.5194864142925</v>
       </c>
       <c r="H17">
-        <v>16.31632412809496</v>
+        <v>10.61688527332776</v>
       </c>
       <c r="I17">
-        <v>23.86274845806272</v>
+        <v>16.1198632756206</v>
       </c>
       <c r="J17">
-        <v>8.630366792048113</v>
+        <v>5.154767748485394</v>
       </c>
       <c r="K17">
-        <v>9.600303857184635</v>
+        <v>13.03301108388062</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.84474082450539</v>
+        <v>16.44562942546792</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.492993966828827</v>
+        <v>14.22080586908784</v>
       </c>
       <c r="C18">
-        <v>4.888159694532227</v>
+        <v>8.506248364165037</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.48101116710201</v>
+        <v>17.27231412512463</v>
       </c>
       <c r="F18">
-        <v>42.75856533323378</v>
+        <v>36.82933872554525</v>
       </c>
       <c r="G18">
-        <v>37.28083086223437</v>
+        <v>31.37560403447558</v>
       </c>
       <c r="H18">
-        <v>16.3267151428358</v>
+        <v>10.62234805199536</v>
       </c>
       <c r="I18">
-        <v>23.88097082276368</v>
+        <v>16.13650434331178</v>
       </c>
       <c r="J18">
-        <v>8.634879807009542</v>
+        <v>5.171205363887956</v>
       </c>
       <c r="K18">
-        <v>9.557246955270754</v>
+        <v>12.8850016028858</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.81285503070604</v>
+        <v>16.23767504674354</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.470997383804461</v>
+        <v>14.1614459546732</v>
       </c>
       <c r="C19">
-        <v>4.872919140016042</v>
+        <v>8.470134175973023</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.47095993242954</v>
+        <v>17.21136109437601</v>
       </c>
       <c r="F19">
-        <v>42.7473547543721</v>
+        <v>36.72877083837472</v>
       </c>
       <c r="G19">
-        <v>37.28148776387325</v>
+        <v>31.32757338524772</v>
       </c>
       <c r="H19">
-        <v>16.33028116332475</v>
+        <v>10.62436880516007</v>
       </c>
       <c r="I19">
-        <v>23.88722136385795</v>
+        <v>16.14244950821896</v>
       </c>
       <c r="J19">
-        <v>8.636417523886832</v>
+        <v>5.176780998887818</v>
       </c>
       <c r="K19">
-        <v>9.542651996047347</v>
+        <v>12.83455138219033</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.80209915381503</v>
+        <v>16.16676573903258</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.569679361987676</v>
+        <v>14.42687745011464</v>
       </c>
       <c r="C20">
-        <v>4.941179180572294</v>
+        <v>8.631698581308729</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.5163963830574</v>
+        <v>17.48472102358254</v>
       </c>
       <c r="F20">
-        <v>42.79849502053525</v>
+        <v>37.18173991265253</v>
       </c>
       <c r="G20">
-        <v>37.2793195381042</v>
+        <v>31.546442770264</v>
       </c>
       <c r="H20">
-        <v>16.31442369741056</v>
+        <v>10.61595632423773</v>
       </c>
       <c r="I20">
-        <v>23.85941428856006</v>
+        <v>16.11693261940387</v>
       </c>
       <c r="J20">
-        <v>8.629536132852076</v>
+        <v>5.151730238728355</v>
       </c>
       <c r="K20">
-        <v>9.608264465541074</v>
+        <v>13.06024452348912</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.850661032356</v>
+        <v>16.48388039205498</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.89559137677576</v>
+        <v>15.28923406478581</v>
       </c>
       <c r="C21">
-        <v>5.164688069432474</v>
+        <v>9.158018269650823</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.67254381539417</v>
+        <v>18.3864891286714</v>
       </c>
       <c r="F21">
-        <v>42.98232918292694</v>
+        <v>38.71001569642268</v>
       </c>
       <c r="G21">
-        <v>37.28584656859066</v>
+        <v>32.33030449178098</v>
       </c>
       <c r="H21">
-        <v>16.26447445176589</v>
+        <v>10.60008463122593</v>
       </c>
       <c r="I21">
-        <v>23.77161626999475</v>
+        <v>16.05380938212095</v>
       </c>
       <c r="J21">
-        <v>8.607087680223765</v>
+        <v>5.068210798044849</v>
       </c>
       <c r="K21">
-        <v>9.827343522682879</v>
+        <v>13.79522813492889</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.01649869919333</v>
+        <v>17.51493651426688</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.1040352179596</v>
+        <v>15.83113910480571</v>
       </c>
       <c r="C22">
-        <v>5.319703753105265</v>
+        <v>9.489911228043544</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.77707521802747</v>
+        <v>18.96311288547271</v>
       </c>
       <c r="F22">
-        <v>43.11131059586933</v>
+        <v>39.71287375531926</v>
       </c>
       <c r="G22">
-        <v>37.30042990295473</v>
+        <v>32.87965293198046</v>
       </c>
       <c r="H22">
-        <v>16.23431648017445</v>
+        <v>10.59953804727257</v>
       </c>
       <c r="I22">
-        <v>23.71844510434357</v>
+        <v>16.03060771519004</v>
       </c>
       <c r="J22">
-        <v>8.592915080766407</v>
+        <v>5.014037581029015</v>
       </c>
       <c r="K22">
-        <v>9.969260155373908</v>
+        <v>14.25836156821811</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.12674291437034</v>
+        <v>18.16356958119945</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.993223298609335</v>
+        <v>15.54388169674537</v>
       </c>
       <c r="C23">
-        <v>5.231113607555484</v>
+        <v>9.313864726931673</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.72106567436295</v>
+        <v>18.65653805006068</v>
       </c>
       <c r="F23">
-        <v>43.04167019445078</v>
+        <v>39.17729767254423</v>
       </c>
       <c r="G23">
-        <v>37.2917012416087</v>
+        <v>32.58300874407188</v>
       </c>
       <c r="H23">
-        <v>16.25018449459417</v>
+        <v>10.59889185424583</v>
       </c>
       <c r="I23">
-        <v>23.74643746206043</v>
+        <v>16.04125990339927</v>
       </c>
       <c r="J23">
-        <v>8.600433764493069</v>
+        <v>5.042917940795428</v>
       </c>
       <c r="K23">
-        <v>9.893647475037929</v>
+        <v>14.01274296693453</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.06774208442597</v>
+        <v>17.81966169510688</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.564280519271291</v>
+        <v>14.41241266320074</v>
       </c>
       <c r="C24">
-        <v>4.93745212151828</v>
+        <v>8.622888896437265</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.513887813104</v>
+        <v>17.46977122766343</v>
       </c>
       <c r="F24">
-        <v>42.79564118011304</v>
+        <v>37.15683901996253</v>
       </c>
       <c r="G24">
-        <v>37.27938671662683</v>
+        <v>31.53424348912857</v>
       </c>
       <c r="H24">
-        <v>16.31528200040582</v>
+        <v>10.61637313959693</v>
       </c>
       <c r="I24">
-        <v>23.86092017550553</v>
+        <v>16.11825180564178</v>
       </c>
       <c r="J24">
-        <v>8.629911492090327</v>
+        <v>5.153103296061026</v>
       </c>
       <c r="K24">
-        <v>9.604665860145365</v>
+        <v>13.04793858733335</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.84798383657331</v>
+        <v>16.4665964414099</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.084387040249494</v>
+        <v>13.09717915785642</v>
       </c>
       <c r="C25">
-        <v>4.602486642316681</v>
+        <v>7.824287345333659</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.30182109577991</v>
+        <v>16.13726358198044</v>
       </c>
       <c r="F25">
-        <v>42.5689113008327</v>
+        <v>34.99983877597229</v>
       </c>
       <c r="G25">
-        <v>37.31022647398371</v>
+        <v>30.555955265684</v>
       </c>
       <c r="H25">
-        <v>16.3961435730848</v>
+        <v>10.67366414619043</v>
       </c>
       <c r="I25">
-        <v>24.00239336721393</v>
+        <v>16.27117172229374</v>
       </c>
       <c r="J25">
-        <v>8.663863408786437</v>
+        <v>5.274171879201652</v>
       </c>
       <c r="K25">
-        <v>9.289129553364972</v>
+        <v>11.93239764520573</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.6197907153993</v>
+        <v>14.98659333819807</v>
       </c>
       <c r="N25">
         <v>0</v>
